--- a/data/trans_orig/ProbViv_estruc-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_estruc-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D2BBDB1-BDB4-4853-B814-C513319C0C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{729103BD-AE3F-4133-BF3B-298856C88136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{19E2F11C-E265-4920-8C9B-C307705C6D9C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34132E83-6959-4F47-8CDD-35D87E8198F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Hogares con problemas estructurales en la vivienda (goteras, humedades, podredumbre) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>17,42%</t>
   </si>
   <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>15,76%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
   </si>
   <si>
     <t>16,42%</t>
   </si>
   <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>82,58%</t>
   </si>
   <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
   </si>
   <si>
     <t>84,24%</t>
   </si>
   <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
   </si>
   <si>
     <t>83,58%</t>
   </si>
   <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,31 +140,31 @@
     <t>7,18%</t>
   </si>
   <si>
-    <t>10,1%</t>
+    <t>9,99%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
   </si>
   <si>
     <t>11,3%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
   </si>
   <si>
     <t>91,42%</t>
   </si>
   <si>
-    <t>89,9%</t>
+    <t>90,01%</t>
   </si>
   <si>
     <t>92,82%</t>
@@ -173,19 +173,19 @@
     <t>86,08%</t>
   </si>
   <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>88,7%</t>
   </si>
   <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,103 +194,109 @@
     <t>7,11%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>8,48%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
   </si>
   <si>
     <t>92,89%</t>
   </si>
   <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
   </si>
   <si>
     <t>93,57%</t>
   </si>
   <si>
-    <t>91,52%</t>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>93,24%</t>
   </si>
   <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>9,71%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
   </si>
   <si>
     <t>12,92%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
   </si>
   <si>
     <t>11,41%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
   </si>
   <si>
     <t>90,29%</t>
   </si>
   <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
   </si>
   <si>
     <t>87,08%</t>
   </si>
   <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>88,59%</t>
   </si>
   <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0693E9-1782-4895-8E4E-48AEE5C10FCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194A73A1-9480-46AF-BFDE-768B2252C6F1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1157,10 +1163,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -1169,13 +1175,13 @@
         <v>93669</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1190,13 +1196,13 @@
         <v>625200</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>943</v>
@@ -1205,28 +1211,28 @@
         <v>666457</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1579</v>
       </c>
       <c r="N11" s="7">
-        <v>1291657</v>
+        <v>1291656</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1268,7 +1274,7 @@
         <v>1682</v>
       </c>
       <c r="N12" s="7">
-        <v>1385326</v>
+        <v>1385325</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1294,13 +1300,13 @@
         <v>327719</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>513</v>
@@ -1309,13 +1315,13 @@
         <v>490441</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>849</v>
@@ -1324,13 +1330,13 @@
         <v>818160</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,13 +1351,13 @@
         <v>3047939</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>4834</v>
@@ -1360,13 +1366,13 @@
         <v>3305925</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>7861</v>
@@ -1375,13 +1381,13 @@
         <v>6353864</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1437,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ProbViv_estruc-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_estruc-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{729103BD-AE3F-4133-BF3B-298856C88136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9254F794-0E75-4B88-8670-E0514381D61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34132E83-6959-4F47-8CDD-35D87E8198F2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2180B53E-B943-4FE8-8740-9CB5FD8A56C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194A73A1-9480-46AF-BFDE-768B2252C6F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD68D67-3B40-42B4-B536-D7B14D62980D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/ProbViv_estruc-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_estruc-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9254F794-0E75-4B88-8670-E0514381D61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FFBAA17-81DF-4708-A7DF-1EE93D904F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2180B53E-B943-4FE8-8740-9CB5FD8A56C2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B6E4B108-2CFA-4403-B21B-B29B2E0C7543}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
-  <si>
-    <t>Hogares con problemas estructurales en la vivienda (goteras, humedades, podredumbre) en 2023 (Tasa respuesta: 99,92%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+  <si>
+    <t>Población con problemas estructurales en la vivienda (goteras, humedades, podredumbre) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>17,42%</t>
   </si>
   <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
   </si>
   <si>
     <t>15,76%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
   </si>
   <si>
     <t>16,42%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>82,58%</t>
   </si>
   <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
   </si>
   <si>
     <t>84,24%</t>
   </si>
   <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
   </si>
   <si>
     <t>83,58%</t>
   </si>
   <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,31 +140,31 @@
     <t>7,18%</t>
   </si>
   <si>
-    <t>9,99%</t>
+    <t>10,1%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
   </si>
   <si>
     <t>11,3%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
   </si>
   <si>
     <t>91,42%</t>
   </si>
   <si>
-    <t>90,01%</t>
+    <t>89,9%</t>
   </si>
   <si>
     <t>92,82%</t>
@@ -173,19 +173,19 @@
     <t>86,08%</t>
   </si>
   <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
   </si>
   <si>
     <t>88,7%</t>
   </si>
   <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,103 @@
     <t>7,11%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
+    <t>8,48%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
   </si>
   <si>
     <t>92,89%</t>
   </si>
   <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>93,57%</t>
   </si>
   <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>91,52%</t>
   </si>
   <si>
     <t>93,24%</t>
   </si>
   <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>9,71%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
   </si>
   <si>
     <t>12,92%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
   </si>
   <si>
     <t>11,41%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
   </si>
   <si>
     <t>90,29%</t>
   </si>
   <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>87,08%</t>
   </si>
   <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
   </si>
   <si>
     <t>88,59%</t>
   </si>
   <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD68D67-3B40-42B4-B536-D7B14D62980D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF2D7F9-213B-4943-9747-818770050B7A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1163,10 +1157,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -1175,13 +1169,13 @@
         <v>93669</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1196,13 +1190,13 @@
         <v>625200</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>943</v>
@@ -1211,28 +1205,28 @@
         <v>666457</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>1579</v>
       </c>
       <c r="N11" s="7">
-        <v>1291656</v>
+        <v>1291657</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1274,7 +1268,7 @@
         <v>1682</v>
       </c>
       <c r="N12" s="7">
-        <v>1385325</v>
+        <v>1385326</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1300,13 +1294,13 @@
         <v>327719</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>513</v>
@@ -1315,13 +1309,13 @@
         <v>490441</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>849</v>
@@ -1330,13 +1324,13 @@
         <v>818160</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,13 +1345,13 @@
         <v>3047939</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>4834</v>
@@ -1366,13 +1360,13 @@
         <v>3305925</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>7861</v>
@@ -1381,13 +1375,13 @@
         <v>6353864</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1443,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ProbViv_estruc-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_estruc-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FFBAA17-81DF-4708-A7DF-1EE93D904F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22513A3A-60BC-4C05-A0D4-007E4BBB2F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B6E4B108-2CFA-4403-B21B-B29B2E0C7543}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C7162AB4-D5A4-4001-AF70-D422BD7D7BF8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población con problemas estructurales en la vivienda (goteras, humedades, podredumbre) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,163 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
   </si>
   <si>
     <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF2D7F9-213B-4943-9747-818770050B7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA04BDE-95BB-4D27-89EC-BC8145373161}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -826,7 +832,7 @@
         <v>116</v>
       </c>
       <c r="D4" s="7">
-        <v>94361</v>
+        <v>85586</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -841,7 +847,7 @@
         <v>204</v>
       </c>
       <c r="I4" s="7">
-        <v>131671</v>
+        <v>115160</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -856,7 +862,7 @@
         <v>320</v>
       </c>
       <c r="N4" s="7">
-        <v>226032</v>
+        <v>200746</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -877,7 +883,7 @@
         <v>575</v>
       </c>
       <c r="D5" s="7">
-        <v>447273</v>
+        <v>429352</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -892,7 +898,7 @@
         <v>1222</v>
       </c>
       <c r="I5" s="7">
-        <v>703664</v>
+        <v>639772</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -907,7 +913,7 @@
         <v>1797</v>
       </c>
       <c r="N5" s="7">
-        <v>1150937</v>
+        <v>1069125</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -928,7 +934,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -943,7 +949,7 @@
         <v>1426</v>
       </c>
       <c r="I6" s="7">
-        <v>835335</v>
+        <v>754932</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -958,7 +964,7 @@
         <v>2117</v>
       </c>
       <c r="N6" s="7">
-        <v>1376969</v>
+        <v>1269871</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -981,7 +987,7 @@
         <v>175</v>
       </c>
       <c r="D7" s="7">
-        <v>185519</v>
+        <v>175373</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -996,7 +1002,7 @@
         <v>251</v>
       </c>
       <c r="I7" s="7">
-        <v>312940</v>
+        <v>383269</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1011,7 +1017,7 @@
         <v>426</v>
       </c>
       <c r="N7" s="7">
-        <v>498459</v>
+        <v>558642</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1032,7 +1038,7 @@
         <v>1816</v>
       </c>
       <c r="D8" s="7">
-        <v>1975467</v>
+        <v>2113949</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1047,7 +1053,7 @@
         <v>2669</v>
       </c>
       <c r="I8" s="7">
-        <v>1935804</v>
+        <v>1853819</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1062,7 +1068,7 @@
         <v>4485</v>
       </c>
       <c r="N8" s="7">
-        <v>3911271</v>
+        <v>3967768</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1083,7 +1089,7 @@
         <v>1991</v>
       </c>
       <c r="D9" s="7">
-        <v>2160986</v>
+        <v>2289322</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1098,7 +1104,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248744</v>
+        <v>2237088</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1113,7 +1119,7 @@
         <v>4911</v>
       </c>
       <c r="N9" s="7">
-        <v>4409730</v>
+        <v>4526410</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1136,7 +1142,7 @@
         <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>47839</v>
+        <v>44814</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1151,31 +1157,31 @@
         <v>58</v>
       </c>
       <c r="I10" s="7">
-        <v>45829</v>
+        <v>42390</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
       </c>
       <c r="N10" s="7">
-        <v>93669</v>
+        <v>87204</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1187,46 +1193,46 @@
         <v>636</v>
       </c>
       <c r="D11" s="7">
-        <v>625200</v>
+        <v>601809</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>943</v>
       </c>
       <c r="I11" s="7">
-        <v>666457</v>
+        <v>616569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1579</v>
       </c>
       <c r="N11" s="7">
-        <v>1291657</v>
+        <v>1218378</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1238,7 +1244,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1253,7 +1259,7 @@
         <v>1001</v>
       </c>
       <c r="I12" s="7">
-        <v>712286</v>
+        <v>658959</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1268,7 +1274,7 @@
         <v>1682</v>
       </c>
       <c r="N12" s="7">
-        <v>1385326</v>
+        <v>1305582</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1291,46 +1297,46 @@
         <v>336</v>
       </c>
       <c r="D13" s="7">
-        <v>327719</v>
+        <v>305774</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>513</v>
       </c>
       <c r="I13" s="7">
-        <v>490441</v>
+        <v>540819</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>849</v>
       </c>
       <c r="N13" s="7">
-        <v>818160</v>
+        <v>846593</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1342,46 +1348,46 @@
         <v>3027</v>
       </c>
       <c r="D14" s="7">
-        <v>3047939</v>
+        <v>3145110</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>4834</v>
       </c>
       <c r="I14" s="7">
-        <v>3305925</v>
+        <v>3110160</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>7861</v>
       </c>
       <c r="N14" s="7">
-        <v>6353864</v>
+        <v>6255271</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,7 +1399,7 @@
         <v>3363</v>
       </c>
       <c r="D15" s="7">
-        <v>3375658</v>
+        <v>3450884</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1408,7 +1414,7 @@
         <v>5347</v>
       </c>
       <c r="I15" s="7">
-        <v>3796366</v>
+        <v>3650979</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1423,7 +1429,7 @@
         <v>8710</v>
       </c>
       <c r="N15" s="7">
-        <v>7172024</v>
+        <v>7101864</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1437,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
